--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,6 +803,252 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112072638</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>654961.7553316271</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6675742.431955903</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112072636</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>654965.1080517033</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6675722.157447209</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112072638</v>
+        <v>112072636</v>
       </c>
       <c r="B3" t="n">
         <v>90687</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>654961.7553316271</v>
+        <v>654965.1080517033</v>
       </c>
       <c r="R3" t="n">
-        <v>6675742.431955903</v>
+        <v>6675722.157447209</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -928,7 +928,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112072636</v>
+        <v>112072638</v>
       </c>
       <c r="B4" t="n">
         <v>90687</v>
@@ -963,7 +963,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>654965.1080517033</v>
+        <v>654961.7553316271</v>
       </c>
       <c r="R4" t="n">
-        <v>6675722.157447209</v>
+        <v>6675742.431955903</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1048,6 +1048,2556 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112111595</v>
+      </c>
+      <c r="B5" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>654959.005806311</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6675760.242101938</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112111596</v>
+      </c>
+      <c r="B6" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>654945.7594188391</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6675743.248354403</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>14:47</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>14:47</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112111594</v>
+      </c>
+      <c r="B7" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>654935.8060408863</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6675836.940452689</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112111575</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>654961.7974395046</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6675741.437814387</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112128590</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Persbo gruva, Upl</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>654853.0588443382</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6675823.975977129</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112128592</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Persbo gruva, Upl</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>654847.4838477984</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6675849.633311509</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112129055</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>654891.4808320869</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6675788.25602867</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112128596</v>
+      </c>
+      <c r="B12" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Persbo gruva, Upl</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>654869.2220899891</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6675889.891051496</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112128620</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>654938.6478880744</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6675769.837030112</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112129085</v>
+      </c>
+      <c r="B14" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>654896.1086447432</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6675820.320967065</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112129051</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>654920.7026232195</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6675769.575048195</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112128598</v>
+      </c>
+      <c r="B16" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>654900.86263613</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6675849.403301032</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112129090</v>
+      </c>
+      <c r="B17" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>654965.7732197616</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6675753.557298226</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>13:59</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112129057</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>654969.2522851203</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6675730.300420964</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112129086</v>
+      </c>
+      <c r="B19" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Persbo gruva, Upl</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>654854.0122225143</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6675895.72043351</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112129048</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Persbo gruva, Upl</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>654842.8977032364</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6675851.928930407</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>12:51</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>12:52</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112129088</v>
+      </c>
+      <c r="B21" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Persbo gruva, Upl</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>654863.1773239733</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6675903.079552793</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112129050</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>654923.528877756</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6675761.7273869</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112129046</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>654943.745803112</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6675779.016172806</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112129074</v>
+      </c>
+      <c r="B24" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Persbomossen, Upl</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>654941.6964638743</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6675839.181716137</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112129089</v>
+      </c>
+      <c r="B25" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Persbo gruva, Upl</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>654895.5121831656</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6675846.189077148</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Dannemora</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>13:43</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>13:43</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Annika Rastén</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -1051,10 +1051,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111595</v>
+        <v>112111596</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,37 +1063,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1103,13 +1095,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>654959.005806311</v>
+        <v>654945.7594188391</v>
       </c>
       <c r="R5" t="n">
-        <v>6675760.242101938</v>
+        <v>6675743.248354403</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1138,7 +1130,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1148,7 +1140,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1175,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111596</v>
+        <v>112111594</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,29 +1179,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>654945.7594188391</v>
+        <v>654935.8060408863</v>
       </c>
       <c r="R6" t="n">
-        <v>6675743.248354403</v>
+        <v>6675836.940452689</v>
       </c>
       <c r="S6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1291,7 +1291,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111594</v>
+        <v>112111595</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>654935.8060408863</v>
+        <v>654959.005806311</v>
       </c>
       <c r="R7" t="n">
-        <v>6675836.940452689</v>
+        <v>6675760.242101938</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112128590</v>
+        <v>112129046</v>
       </c>
       <c r="B9" t="n">
-        <v>56414</v>
+        <v>90678</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1546,50 +1546,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>654853.0588443382</v>
+        <v>654943.745803112</v>
       </c>
       <c r="R9" t="n">
-        <v>6675823.975977129</v>
+        <v>6675779.016172806</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1621,7 +1620,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1631,7 +1630,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1782,10 +1786,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112129055</v>
+        <v>112129090</v>
       </c>
       <c r="B11" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1798,34 +1802,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1833,10 +1830,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>654891.4808320869</v>
+        <v>654965.7732197616</v>
       </c>
       <c r="R11" t="n">
-        <v>6675788.25602867</v>
+        <v>6675753.557298226</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1868,7 +1865,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1878,7 +1875,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1905,7 +1902,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128596</v>
+        <v>112128590</v>
       </c>
       <c r="B12" t="n">
         <v>56414</v>
@@ -1957,10 +1954,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>654869.2220899891</v>
+        <v>654853.0588443382</v>
       </c>
       <c r="R12" t="n">
-        <v>6675889.891051496</v>
+        <v>6675823.975977129</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -1992,7 +1989,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2002,7 +1999,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2029,10 +2026,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128620</v>
+        <v>112129086</v>
       </c>
       <c r="B13" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2045,41 +2042,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>654938.6478880744</v>
+        <v>654854.0122225143</v>
       </c>
       <c r="R13" t="n">
-        <v>6675769.837030112</v>
+        <v>6675895.72043351</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2111,7 +2105,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2121,12 +2115,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2153,10 +2142,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129085</v>
+        <v>112128596</v>
       </c>
       <c r="B14" t="n">
-        <v>98535</v>
+        <v>56414</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2165,42 +2154,50 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>654896.1086447432</v>
+        <v>654869.2220899891</v>
       </c>
       <c r="R14" t="n">
-        <v>6675820.320967065</v>
+        <v>6675889.891051496</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2232,7 +2229,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2242,7 +2239,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2269,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112129051</v>
+        <v>112129088</v>
       </c>
       <c r="B15" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2285,45 +2282,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>654920.7026232195</v>
+        <v>654863.1773239733</v>
       </c>
       <c r="R15" t="n">
-        <v>6675769.575048195</v>
+        <v>6675903.079552793</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2355,7 +2345,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2365,7 +2355,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2392,10 +2382,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128598</v>
+        <v>112129089</v>
       </c>
       <c r="B16" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2404,50 +2394,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>654900.86263613</v>
+        <v>654895.5121831656</v>
       </c>
       <c r="R16" t="n">
-        <v>6675849.403301032</v>
+        <v>6675846.189077148</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -2479,7 +2461,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2489,7 +2471,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2516,10 +2498,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112129090</v>
+        <v>112128620</v>
       </c>
       <c r="B17" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2532,27 +2514,30 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2560,10 +2545,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>654965.7732197616</v>
+        <v>654938.6478880744</v>
       </c>
       <c r="R17" t="n">
-        <v>6675753.557298226</v>
+        <v>6675769.837030112</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2595,7 +2580,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2605,7 +2590,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2632,7 +2622,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129057</v>
+        <v>112129051</v>
       </c>
       <c r="B18" t="n">
         <v>90687</v>
@@ -2667,7 +2657,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2683,10 +2673,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>654969.2522851203</v>
+        <v>654920.7026232195</v>
       </c>
       <c r="R18" t="n">
-        <v>6675730.300420964</v>
+        <v>6675769.575048195</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -2718,7 +2708,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2728,7 +2718,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2755,10 +2745,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112129086</v>
+        <v>112128598</v>
       </c>
       <c r="B19" t="n">
-        <v>98535</v>
+        <v>56414</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2767,42 +2757,50 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654854.0122225143</v>
+        <v>654900.86263613</v>
       </c>
       <c r="R19" t="n">
-        <v>6675895.72043351</v>
+        <v>6675849.403301032</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -2834,7 +2832,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2844,7 +2842,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2994,10 +2992,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129088</v>
+        <v>112129055</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3010,38 +3008,45 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654863.1773239733</v>
+        <v>654891.4808320869</v>
       </c>
       <c r="R21" t="n">
-        <v>6675903.079552793</v>
+        <v>6675788.25602867</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -3073,7 +3078,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3083,7 +3088,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3110,10 +3115,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112129050</v>
+        <v>112129074</v>
       </c>
       <c r="B22" t="n">
-        <v>90687</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3122,25 +3127,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3150,10 +3155,11 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3161,10 +3167,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654923.528877756</v>
+        <v>654941.6964638743</v>
       </c>
       <c r="R22" t="n">
-        <v>6675761.7273869</v>
+        <v>6675839.181716137</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3196,7 +3202,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3206,7 +3212,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3233,10 +3239,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112129046</v>
+        <v>112129050</v>
       </c>
       <c r="B23" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3249,21 +3255,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3284,10 +3290,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654943.745803112</v>
+        <v>654923.528877756</v>
       </c>
       <c r="R23" t="n">
-        <v>6675779.016172806</v>
+        <v>6675761.7273869</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3319,7 +3325,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3329,12 +3335,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3361,10 +3362,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112129074</v>
+        <v>112129057</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>90687</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3373,39 +3374,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654941.6964638743</v>
+        <v>654969.2522851203</v>
       </c>
       <c r="R24" t="n">
-        <v>6675839.181716137</v>
+        <v>6675730.300420964</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3485,7 +3485,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112129089</v>
+        <v>112129085</v>
       </c>
       <c r="B25" t="n">
         <v>98535</v>
@@ -3525,14 +3525,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654895.5121831656</v>
+        <v>654896.1086447432</v>
       </c>
       <c r="R25" t="n">
-        <v>6675846.189077148</v>
+        <v>6675820.320967065</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -2026,10 +2026,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112129086</v>
+        <v>112128596</v>
       </c>
       <c r="B13" t="n">
-        <v>98535</v>
+        <v>56414</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,31 +2038,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2070,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>654854.0122225143</v>
+        <v>654869.2220899891</v>
       </c>
       <c r="R13" t="n">
-        <v>6675895.72043351</v>
+        <v>6675889.891051496</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2105,7 +2113,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2115,7 +2123,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2142,10 +2150,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128596</v>
+        <v>112129086</v>
       </c>
       <c r="B14" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2154,39 +2162,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>654869.2220899891</v>
+        <v>654854.0122225143</v>
       </c>
       <c r="R14" t="n">
-        <v>6675889.891051496</v>
+        <v>6675895.72043351</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -3239,7 +3239,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112129050</v>
+        <v>112129057</v>
       </c>
       <c r="B23" t="n">
         <v>90687</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3290,10 +3290,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654923.528877756</v>
+        <v>654969.2522851203</v>
       </c>
       <c r="R23" t="n">
-        <v>6675761.7273869</v>
+        <v>6675730.300420964</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3362,7 +3362,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112129057</v>
+        <v>112129050</v>
       </c>
       <c r="B24" t="n">
         <v>90687</v>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654969.2522851203</v>
+        <v>654923.528877756</v>
       </c>
       <c r="R24" t="n">
-        <v>6675730.300420964</v>
+        <v>6675761.7273869</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>654965.1080517033</v>
+        <v>654965</v>
       </c>
       <c r="R3" t="n">
-        <v>6675722.157447209</v>
+        <v>6675722</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>654961.7553316271</v>
+        <v>654962</v>
       </c>
       <c r="R4" t="n">
-        <v>6675742.431955903</v>
+        <v>6675742</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>654945.7594188391</v>
+        <v>654946</v>
       </c>
       <c r="R5" t="n">
-        <v>6675743.248354403</v>
+        <v>6675743</v>
       </c>
       <c r="S5" t="n">
         <v>11</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111594</v>
+        <v>112111595</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>654935.8060408863</v>
+        <v>654959</v>
       </c>
       <c r="R6" t="n">
-        <v>6675836.940452689</v>
+        <v>6675760</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1291,10 +1291,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111595</v>
+        <v>112111575</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>90687</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,25 +1303,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1329,13 +1329,8 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1343,10 +1338,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>654959.005806311</v>
+        <v>654962</v>
       </c>
       <c r="R7" t="n">
-        <v>6675760.242101938</v>
+        <v>6675741</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1378,7 +1373,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1388,7 +1383,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,10 +1410,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111575</v>
+        <v>112111594</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1427,25 +1422,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1453,8 +1448,13 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>654961.7974395046</v>
+        <v>654936</v>
       </c>
       <c r="R8" t="n">
-        <v>6675741.437814387</v>
+        <v>6675837</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129046</v>
+        <v>112129050</v>
       </c>
       <c r="B9" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>654943.745803112</v>
+        <v>654924</v>
       </c>
       <c r="R9" t="n">
-        <v>6675779.016172806</v>
+        <v>6675762</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1630,12 +1630,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1662,10 +1657,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112128592</v>
+        <v>112129088</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1674,39 +1669,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1714,10 +1701,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>654847.4838477984</v>
+        <v>654863</v>
       </c>
       <c r="R10" t="n">
-        <v>6675849.633311509</v>
+        <v>6675903</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1749,7 +1736,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1759,7 +1746,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1786,10 +1773,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112129090</v>
+        <v>112129074</v>
       </c>
       <c r="B11" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1798,29 +1785,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1830,10 +1825,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>654965.7732197616</v>
+        <v>654942</v>
       </c>
       <c r="R11" t="n">
-        <v>6675753.557298226</v>
+        <v>6675839</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1865,7 +1860,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1875,7 +1870,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1954,10 +1949,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>654853.0588443382</v>
+        <v>654853</v>
       </c>
       <c r="R12" t="n">
-        <v>6675823.975977129</v>
+        <v>6675824</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -2026,10 +2021,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128596</v>
+        <v>112129048</v>
       </c>
       <c r="B13" t="n">
-        <v>56414</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,39 +2033,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2078,10 +2072,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>654869.2220899891</v>
+        <v>654843</v>
       </c>
       <c r="R13" t="n">
-        <v>6675889.891051496</v>
+        <v>6675852</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2113,7 +2107,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2123,7 +2117,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2150,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129086</v>
+        <v>112129046</v>
       </c>
       <c r="B14" t="n">
-        <v>98535</v>
+        <v>90678</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2166,38 +2160,45 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>654854.0122225143</v>
+        <v>654944</v>
       </c>
       <c r="R14" t="n">
-        <v>6675895.72043351</v>
+        <v>6675779</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2229,7 +2230,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2239,7 +2240,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2266,10 +2272,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112129088</v>
+        <v>112128592</v>
       </c>
       <c r="B15" t="n">
-        <v>98535</v>
+        <v>56414</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2278,31 +2284,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2310,10 +2324,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>654863.1773239733</v>
+        <v>654847</v>
       </c>
       <c r="R15" t="n">
-        <v>6675903.079552793</v>
+        <v>6675850</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2345,7 +2359,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2355,7 +2369,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2426,10 +2440,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>654895.5121831656</v>
+        <v>654896</v>
       </c>
       <c r="R16" t="n">
-        <v>6675846.189077148</v>
+        <v>6675846</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -2498,10 +2512,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128620</v>
+        <v>112129055</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2514,29 +2528,33 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2545,10 +2563,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>654938.6478880744</v>
+        <v>654891</v>
       </c>
       <c r="R17" t="n">
-        <v>6675769.837030112</v>
+        <v>6675788</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2580,7 +2598,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2590,12 +2608,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2622,10 +2635,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129051</v>
+        <v>112129090</v>
       </c>
       <c r="B18" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2638,34 +2651,27 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2673,10 +2679,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>654920.7026232195</v>
+        <v>654966</v>
       </c>
       <c r="R18" t="n">
-        <v>6675769.575048195</v>
+        <v>6675754</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -2708,7 +2714,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2718,7 +2724,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2745,10 +2751,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112128598</v>
+        <v>112128620</v>
       </c>
       <c r="B19" t="n">
-        <v>56414</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2757,39 +2763,34 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2797,10 +2798,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654900.86263613</v>
+        <v>654939</v>
       </c>
       <c r="R19" t="n">
-        <v>6675849.403301032</v>
+        <v>6675770</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -2832,7 +2833,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2842,7 +2843,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2869,10 +2875,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129048</v>
+        <v>112129086</v>
       </c>
       <c r="B20" t="n">
-        <v>90678</v>
+        <v>98535</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2885,34 +2891,27 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2920,10 +2919,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654842.8977032364</v>
+        <v>654854</v>
       </c>
       <c r="R20" t="n">
-        <v>6675851.928930407</v>
+        <v>6675896</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
@@ -2955,7 +2954,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2965,7 +2964,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2992,7 +2991,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129055</v>
+        <v>112129057</v>
       </c>
       <c r="B21" t="n">
         <v>90687</v>
@@ -3043,10 +3042,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654891.4808320869</v>
+        <v>654969</v>
       </c>
       <c r="R21" t="n">
-        <v>6675788.25602867</v>
+        <v>6675730</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -3078,7 +3077,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3088,7 +3087,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3115,10 +3114,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112129074</v>
+        <v>112128596</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3127,50 +3126,50 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654941.6964638743</v>
+        <v>654869</v>
       </c>
       <c r="R22" t="n">
-        <v>6675839.181716137</v>
+        <v>6675890</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3202,7 +3201,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3212,7 +3211,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3239,10 +3238,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112129057</v>
+        <v>112129085</v>
       </c>
       <c r="B23" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3255,34 +3254,27 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3290,10 +3282,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654969.2522851203</v>
+        <v>654896</v>
       </c>
       <c r="R23" t="n">
-        <v>6675730.300420964</v>
+        <v>6675820</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3325,7 +3317,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3335,7 +3327,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3362,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112129050</v>
+        <v>112128598</v>
       </c>
       <c r="B24" t="n">
-        <v>90687</v>
+        <v>56414</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3374,38 +3366,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3413,10 +3406,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654923.528877756</v>
+        <v>654901</v>
       </c>
       <c r="R24" t="n">
-        <v>6675761.7273869</v>
+        <v>6675849</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -3448,7 +3441,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3458,7 +3451,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3485,10 +3478,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112129085</v>
+        <v>112129051</v>
       </c>
       <c r="B25" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3501,27 +3494,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654896.1086447432</v>
+        <v>654921</v>
       </c>
       <c r="R25" t="n">
-        <v>6675820.320967065</v>
+        <v>6675770</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -805,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112072636</v>
+        <v>112072638</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>654965</v>
+        <v>654962</v>
       </c>
       <c r="R3" t="n">
-        <v>6675722</v>
+        <v>6675742</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112072638</v>
+        <v>112072636</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>654962</v>
+        <v>654965</v>
       </c>
       <c r="R4" t="n">
-        <v>6675742</v>
+        <v>6675722</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1051,10 +1051,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111596</v>
+        <v>112111594</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>96720</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,29 +1063,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1095,13 +1103,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>654946</v>
+        <v>654936</v>
       </c>
       <c r="R5" t="n">
-        <v>6675743</v>
+        <v>6675837</v>
       </c>
       <c r="S5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1130,7 +1138,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1140,7 +1148,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1167,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111595</v>
+        <v>112111575</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>90821</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,25 +1187,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1205,13 +1213,8 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1219,10 +1222,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>654959</v>
+        <v>654962</v>
       </c>
       <c r="R6" t="n">
-        <v>6675760</v>
+        <v>6675741</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,7 +1267,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1291,10 +1294,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111575</v>
+        <v>112111595</v>
       </c>
       <c r="B7" t="n">
-        <v>90687</v>
+        <v>96720</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,25 +1306,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1329,8 +1332,13 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1338,10 +1346,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>654962</v>
+        <v>654959</v>
       </c>
       <c r="R7" t="n">
-        <v>6675741</v>
+        <v>6675760</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1373,7 +1381,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1383,7 +1391,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1410,10 +1418,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111594</v>
+        <v>112111596</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>98961</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,37 +1430,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>654936</v>
+        <v>654946</v>
       </c>
       <c r="R8" t="n">
-        <v>6675837</v>
+        <v>6675743</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129050</v>
+        <v>112129088</v>
       </c>
       <c r="B9" t="n">
-        <v>90687</v>
+        <v>98961</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,45 +1550,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>654924</v>
+        <v>654863</v>
       </c>
       <c r="R9" t="n">
-        <v>6675762</v>
+        <v>6675903</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1620,7 +1613,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1630,7 +1623,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1657,10 +1650,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129088</v>
+        <v>112128620</v>
       </c>
       <c r="B10" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1673,38 +1666,41 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>654863</v>
+        <v>654939</v>
       </c>
       <c r="R10" t="n">
-        <v>6675903</v>
+        <v>6675770</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1736,7 +1732,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1746,7 +1742,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1773,10 +1774,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112129074</v>
+        <v>112129086</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>98961</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1785,50 +1786,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>654942</v>
+        <v>654854</v>
       </c>
       <c r="R11" t="n">
-        <v>6675839</v>
+        <v>6675896</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1860,7 +1853,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1870,7 +1863,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1897,10 +1890,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128590</v>
+        <v>112129057</v>
       </c>
       <c r="B12" t="n">
-        <v>56414</v>
+        <v>90821</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1909,25 +1902,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1935,24 +1928,23 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>654853</v>
+        <v>654969</v>
       </c>
       <c r="R12" t="n">
-        <v>6675824</v>
+        <v>6675730</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -1984,7 +1976,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1994,7 +1986,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2021,10 +2013,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112129048</v>
+        <v>112129074</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>96720</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2033,49 +2025,50 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>654843</v>
+        <v>654942</v>
       </c>
       <c r="R13" t="n">
-        <v>6675852</v>
+        <v>6675839</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2107,7 +2100,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2117,7 +2110,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2144,10 +2137,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129046</v>
+        <v>112129089</v>
       </c>
       <c r="B14" t="n">
-        <v>90678</v>
+        <v>98961</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,45 +2153,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>654944</v>
+        <v>654896</v>
       </c>
       <c r="R14" t="n">
-        <v>6675779</v>
+        <v>6675846</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2230,7 +2216,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2240,12 +2226,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2272,10 +2253,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128592</v>
+        <v>112129046</v>
       </c>
       <c r="B15" t="n">
-        <v>56414</v>
+        <v>90812</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2284,50 +2265,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>654847</v>
+        <v>654944</v>
       </c>
       <c r="R15" t="n">
-        <v>6675850</v>
+        <v>6675779</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2359,7 +2339,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2369,7 +2349,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2396,10 +2381,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112129089</v>
+        <v>112129055</v>
       </c>
       <c r="B16" t="n">
-        <v>98535</v>
+        <v>90821</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2412,38 +2397,45 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>654896</v>
+        <v>654891</v>
       </c>
       <c r="R16" t="n">
-        <v>6675846</v>
+        <v>6675788</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -2475,7 +2467,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2485,7 +2477,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2512,10 +2504,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112129055</v>
+        <v>112128590</v>
       </c>
       <c r="B17" t="n">
-        <v>90687</v>
+        <v>56446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2524,25 +2516,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2550,23 +2542,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>654891</v>
+        <v>654853</v>
       </c>
       <c r="R17" t="n">
-        <v>6675788</v>
+        <v>6675824</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2598,7 +2591,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2608,7 +2601,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2635,10 +2628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129090</v>
+        <v>112128596</v>
       </c>
       <c r="B18" t="n">
-        <v>98535</v>
+        <v>56446</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2647,42 +2640,50 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>654966</v>
+        <v>654869</v>
       </c>
       <c r="R18" t="n">
-        <v>6675754</v>
+        <v>6675890</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -2714,7 +2715,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2724,7 +2725,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2751,10 +2752,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112128620</v>
+        <v>112128592</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>56446</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2763,45 +2764,50 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654939</v>
+        <v>654847</v>
       </c>
       <c r="R19" t="n">
-        <v>6675770</v>
+        <v>6675850</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -2833,7 +2839,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2843,12 +2849,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2875,10 +2876,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129086</v>
+        <v>112129048</v>
       </c>
       <c r="B20" t="n">
-        <v>98535</v>
+        <v>90812</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2891,27 +2892,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2919,10 +2927,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654854</v>
+        <v>654843</v>
       </c>
       <c r="R20" t="n">
-        <v>6675896</v>
+        <v>6675852</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
@@ -2954,7 +2962,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2964,7 +2972,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2991,10 +2999,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129057</v>
+        <v>112129085</v>
       </c>
       <c r="B21" t="n">
-        <v>90687</v>
+        <v>98961</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3007,34 +3015,27 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3042,10 +3043,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654969</v>
+        <v>654896</v>
       </c>
       <c r="R21" t="n">
-        <v>6675730</v>
+        <v>6675820</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -3077,7 +3078,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3087,7 +3088,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3114,10 +3115,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112128596</v>
+        <v>112129090</v>
       </c>
       <c r="B22" t="n">
-        <v>56414</v>
+        <v>98961</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,50 +3127,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654869</v>
+        <v>654966</v>
       </c>
       <c r="R22" t="n">
-        <v>6675890</v>
+        <v>6675754</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3201,7 +3194,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3211,7 +3204,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3238,10 +3231,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112129085</v>
+        <v>112129050</v>
       </c>
       <c r="B23" t="n">
-        <v>98535</v>
+        <v>90821</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3254,27 +3247,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654896</v>
+        <v>654924</v>
       </c>
       <c r="R23" t="n">
-        <v>6675820</v>
+        <v>6675762</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3354,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112128598</v>
+        <v>112129051</v>
       </c>
       <c r="B24" t="n">
-        <v>56414</v>
+        <v>90821</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3366,39 +3366,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3406,10 +3405,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654901</v>
+        <v>654921</v>
       </c>
       <c r="R24" t="n">
-        <v>6675849</v>
+        <v>6675770</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -3441,7 +3440,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3451,7 +3450,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3478,10 +3477,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112129051</v>
+        <v>112128598</v>
       </c>
       <c r="B25" t="n">
-        <v>90687</v>
+        <v>56446</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3490,38 +3489,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654921</v>
+        <v>654901</v>
       </c>
       <c r="R25" t="n">
-        <v>6675770</v>
+        <v>6675849</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -805,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112072638</v>
+        <v>112072636</v>
       </c>
       <c r="B3" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>654962</v>
+        <v>654965</v>
       </c>
       <c r="R3" t="n">
-        <v>6675742</v>
+        <v>6675722</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112072636</v>
+        <v>112072638</v>
       </c>
       <c r="B4" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>654965</v>
+        <v>654962</v>
       </c>
       <c r="R4" t="n">
-        <v>6675722</v>
+        <v>6675742</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1051,10 +1051,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111594</v>
+        <v>112111596</v>
       </c>
       <c r="B5" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,37 +1063,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1103,13 +1095,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>654936</v>
+        <v>654946</v>
       </c>
       <c r="R5" t="n">
-        <v>6675837</v>
+        <v>6675743</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1138,7 +1130,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1148,7 +1140,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1175,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111575</v>
+        <v>112111594</v>
       </c>
       <c r="B6" t="n">
-        <v>90821</v>
+        <v>96735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,25 +1179,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1213,8 +1205,13 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1222,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>654962</v>
+        <v>654936</v>
       </c>
       <c r="R6" t="n">
-        <v>6675741</v>
+        <v>6675837</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1257,7 +1254,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1267,7 +1264,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1297,7 +1294,7 @@
         <v>112111595</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1418,10 +1415,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111596</v>
+        <v>112111575</v>
       </c>
       <c r="B8" t="n">
-        <v>98961</v>
+        <v>90835</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1434,27 +1431,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>654946</v>
+        <v>654962</v>
       </c>
       <c r="R8" t="n">
-        <v>6675743</v>
+        <v>6675741</v>
       </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129088</v>
+        <v>112129055</v>
       </c>
       <c r="B9" t="n">
-        <v>98961</v>
+        <v>90835</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,38 +1550,45 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>654863</v>
+        <v>654891</v>
       </c>
       <c r="R9" t="n">
-        <v>6675903</v>
+        <v>6675788</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1613,7 +1620,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1623,7 +1630,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1650,10 +1657,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112128620</v>
+        <v>112129089</v>
       </c>
       <c r="B10" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1666,41 +1673,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>654939</v>
+        <v>654896</v>
       </c>
       <c r="R10" t="n">
-        <v>6675770</v>
+        <v>6675846</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1732,7 +1736,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1742,12 +1746,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1774,10 +1773,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112129086</v>
+        <v>112128598</v>
       </c>
       <c r="B11" t="n">
-        <v>98961</v>
+        <v>56446</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1786,42 +1785,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>654854</v>
+        <v>654901</v>
       </c>
       <c r="R11" t="n">
-        <v>6675896</v>
+        <v>6675849</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1853,7 +1860,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1863,7 +1870,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1890,10 +1897,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129057</v>
+        <v>112129090</v>
       </c>
       <c r="B12" t="n">
-        <v>90821</v>
+        <v>98980</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1906,34 +1913,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1941,10 +1941,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>654969</v>
+        <v>654966</v>
       </c>
       <c r="R12" t="n">
-        <v>6675730</v>
+        <v>6675754</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2013,10 +2013,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112129074</v>
+        <v>112128596</v>
       </c>
       <c r="B13" t="n">
-        <v>96720</v>
+        <v>56446</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2025,50 +2025,50 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>654942</v>
+        <v>654869</v>
       </c>
       <c r="R13" t="n">
-        <v>6675839</v>
+        <v>6675890</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2137,10 +2137,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129089</v>
+        <v>112129088</v>
       </c>
       <c r="B14" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>654896</v>
+        <v>654863</v>
       </c>
       <c r="R14" t="n">
-        <v>6675846</v>
+        <v>6675903</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2253,10 +2253,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112129046</v>
+        <v>112129057</v>
       </c>
       <c r="B15" t="n">
-        <v>90812</v>
+        <v>90835</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2269,26 +2269,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>654944</v>
+        <v>654969</v>
       </c>
       <c r="R15" t="n">
-        <v>6675779</v>
+        <v>6675730</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2349,12 +2349,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2381,10 +2376,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112129055</v>
+        <v>112129086</v>
       </c>
       <c r="B16" t="n">
-        <v>90821</v>
+        <v>98980</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2397,45 +2392,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>654891</v>
+        <v>654854</v>
       </c>
       <c r="R16" t="n">
-        <v>6675788</v>
+        <v>6675896</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -2467,7 +2455,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2477,7 +2465,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2504,10 +2492,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128590</v>
+        <v>112129074</v>
       </c>
       <c r="B17" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2516,50 +2504,50 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>654853</v>
+        <v>654942</v>
       </c>
       <c r="R17" t="n">
-        <v>6675824</v>
+        <v>6675839</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2591,7 +2579,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2601,7 +2589,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2628,10 +2616,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112128596</v>
+        <v>112129051</v>
       </c>
       <c r="B18" t="n">
-        <v>56446</v>
+        <v>90835</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2640,50 +2628,49 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>654869</v>
+        <v>654921</v>
       </c>
       <c r="R18" t="n">
-        <v>6675890</v>
+        <v>6675770</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -2715,7 +2702,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2725,7 +2712,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2752,10 +2739,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112128592</v>
+        <v>112129046</v>
       </c>
       <c r="B19" t="n">
-        <v>56446</v>
+        <v>90826</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2764,50 +2751,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654847</v>
+        <v>654944</v>
       </c>
       <c r="R19" t="n">
-        <v>6675850</v>
+        <v>6675779</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -2839,7 +2825,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2849,7 +2835,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2876,10 +2867,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129048</v>
+        <v>112128590</v>
       </c>
       <c r="B20" t="n">
-        <v>90812</v>
+        <v>56446</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2888,38 +2879,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2927,10 +2919,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654843</v>
+        <v>654853</v>
       </c>
       <c r="R20" t="n">
-        <v>6675852</v>
+        <v>6675824</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
@@ -2962,7 +2954,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2972,7 +2964,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2999,10 +2991,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129085</v>
+        <v>112129048</v>
       </c>
       <c r="B21" t="n">
-        <v>98961</v>
+        <v>90826</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3015,38 +3007,45 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654896</v>
+        <v>654843</v>
       </c>
       <c r="R21" t="n">
-        <v>6675820</v>
+        <v>6675852</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -3078,7 +3077,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3088,7 +3087,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3115,10 +3114,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112129090</v>
+        <v>112128592</v>
       </c>
       <c r="B22" t="n">
-        <v>98961</v>
+        <v>56446</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3127,42 +3126,50 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654966</v>
+        <v>654847</v>
       </c>
       <c r="R22" t="n">
-        <v>6675754</v>
+        <v>6675850</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3194,7 +3201,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3204,7 +3211,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3231,10 +3238,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112129050</v>
+        <v>112128620</v>
       </c>
       <c r="B23" t="n">
-        <v>90821</v>
+        <v>90480</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3247,33 +3254,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
@@ -3282,10 +3285,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654924</v>
+        <v>654939</v>
       </c>
       <c r="R23" t="n">
-        <v>6675762</v>
+        <v>6675770</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3317,7 +3320,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3327,7 +3330,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3354,10 +3362,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112129051</v>
+        <v>112129085</v>
       </c>
       <c r="B24" t="n">
-        <v>90821</v>
+        <v>98980</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3370,34 +3378,27 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3405,10 +3406,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654921</v>
+        <v>654896</v>
       </c>
       <c r="R24" t="n">
-        <v>6675770</v>
+        <v>6675820</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -3440,7 +3441,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3450,7 +3451,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3477,10 +3478,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112128598</v>
+        <v>112129050</v>
       </c>
       <c r="B25" t="n">
-        <v>56446</v>
+        <v>90835</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3489,39 +3490,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654901</v>
+        <v>654924</v>
       </c>
       <c r="R25" t="n">
-        <v>6675849</v>
+        <v>6675762</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112072636</v>
+        <v>112072638</v>
       </c>
       <c r="B3" t="n">
         <v>90835</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>654965</v>
+        <v>654962</v>
       </c>
       <c r="R3" t="n">
-        <v>6675722</v>
+        <v>6675742</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -928,7 +928,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112072638</v>
+        <v>112072636</v>
       </c>
       <c r="B4" t="n">
         <v>90835</v>
@@ -963,7 +963,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>654962</v>
+        <v>654965</v>
       </c>
       <c r="R4" t="n">
-        <v>6675742</v>
+        <v>6675722</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1051,10 +1051,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111596</v>
+        <v>112111594</v>
       </c>
       <c r="B5" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,29 +1063,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1095,13 +1103,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>654946</v>
+        <v>654936</v>
       </c>
       <c r="R5" t="n">
-        <v>6675743</v>
+        <v>6675837</v>
       </c>
       <c r="S5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1130,7 +1138,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1140,7 +1148,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1167,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111594</v>
+        <v>112111575</v>
       </c>
       <c r="B6" t="n">
-        <v>96735</v>
+        <v>90835</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,25 +1187,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1205,13 +1213,8 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1219,10 +1222,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>654936</v>
+        <v>654962</v>
       </c>
       <c r="R6" t="n">
-        <v>6675837</v>
+        <v>6675741</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1264,7 +1267,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1291,10 +1294,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111595</v>
+        <v>112111596</v>
       </c>
       <c r="B7" t="n">
-        <v>96735</v>
+        <v>98980</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1303,37 +1306,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1343,13 +1338,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>654959</v>
+        <v>654946</v>
       </c>
       <c r="R7" t="n">
-        <v>6675760</v>
+        <v>6675743</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1378,7 +1373,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1388,7 +1383,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,10 +1410,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111575</v>
+        <v>112111595</v>
       </c>
       <c r="B8" t="n">
-        <v>90835</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1427,25 +1422,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1453,8 +1448,13 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>654962</v>
+        <v>654959</v>
       </c>
       <c r="R8" t="n">
-        <v>6675741</v>
+        <v>6675760</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129055</v>
+        <v>112129048</v>
       </c>
       <c r="B9" t="n">
-        <v>90835</v>
+        <v>90826</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,26 +1550,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1581,14 +1581,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>654891</v>
+        <v>654843</v>
       </c>
       <c r="R9" t="n">
-        <v>6675788</v>
+        <v>6675852</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1657,10 +1657,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129089</v>
+        <v>112128592</v>
       </c>
       <c r="B10" t="n">
-        <v>98980</v>
+        <v>56446</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1669,31 +1669,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1701,10 +1709,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>654896</v>
+        <v>654847</v>
       </c>
       <c r="R10" t="n">
-        <v>6675846</v>
+        <v>6675850</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1736,7 +1744,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1746,7 +1754,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1773,10 +1781,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112128598</v>
+        <v>112129088</v>
       </c>
       <c r="B11" t="n">
-        <v>56446</v>
+        <v>98980</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1785,50 +1793,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>654901</v>
+        <v>654863</v>
       </c>
       <c r="R11" t="n">
-        <v>6675849</v>
+        <v>6675903</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:41</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1897,7 +1897,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129090</v>
+        <v>112129089</v>
       </c>
       <c r="B12" t="n">
         <v>98980</v>
@@ -1937,14 +1937,14 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>654966</v>
+        <v>654896</v>
       </c>
       <c r="R12" t="n">
-        <v>6675754</v>
+        <v>6675846</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2013,10 +2013,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128596</v>
+        <v>112129055</v>
       </c>
       <c r="B13" t="n">
-        <v>56446</v>
+        <v>90835</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2025,25 +2025,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2051,24 +2051,23 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>654869</v>
+        <v>654891</v>
       </c>
       <c r="R13" t="n">
-        <v>6675890</v>
+        <v>6675788</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2100,7 +2099,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2110,7 +2109,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2137,10 +2136,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129088</v>
+        <v>112129051</v>
       </c>
       <c r="B14" t="n">
-        <v>98980</v>
+        <v>90835</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2153,38 +2152,45 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>654863</v>
+        <v>654921</v>
       </c>
       <c r="R14" t="n">
-        <v>6675903</v>
+        <v>6675770</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2216,7 +2222,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2226,7 +2232,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2492,10 +2498,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112129074</v>
+        <v>112129050</v>
       </c>
       <c r="B17" t="n">
-        <v>96735</v>
+        <v>90835</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2504,25 +2510,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2532,11 +2538,10 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2544,10 +2549,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>654942</v>
+        <v>654924</v>
       </c>
       <c r="R17" t="n">
-        <v>6675839</v>
+        <v>6675762</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2579,7 +2584,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2589,7 +2594,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2616,10 +2621,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129051</v>
+        <v>112128590</v>
       </c>
       <c r="B18" t="n">
-        <v>90835</v>
+        <v>56446</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2628,49 +2633,50 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>654921</v>
+        <v>654853</v>
       </c>
       <c r="R18" t="n">
-        <v>6675770</v>
+        <v>6675824</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -2702,7 +2708,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2712,7 +2718,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2739,10 +2745,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112129046</v>
+        <v>112129085</v>
       </c>
       <c r="B19" t="n">
-        <v>90826</v>
+        <v>98980</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2755,34 +2761,27 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2790,10 +2789,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654944</v>
+        <v>654896</v>
       </c>
       <c r="R19" t="n">
-        <v>6675779</v>
+        <v>6675820</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -2825,7 +2824,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2835,12 +2834,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2867,7 +2861,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112128590</v>
+        <v>112128598</v>
       </c>
       <c r="B20" t="n">
         <v>56446</v>
@@ -2915,14 +2909,14 @@
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654853</v>
+        <v>654901</v>
       </c>
       <c r="R20" t="n">
-        <v>6675824</v>
+        <v>6675849</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
@@ -2954,7 +2948,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2964,7 +2958,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2991,10 +2985,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129048</v>
+        <v>112129090</v>
       </c>
       <c r="B21" t="n">
-        <v>90826</v>
+        <v>98980</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3007,45 +3001,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654843</v>
+        <v>654966</v>
       </c>
       <c r="R21" t="n">
-        <v>6675852</v>
+        <v>6675754</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -3077,7 +3064,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3087,7 +3074,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3114,10 +3101,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112128592</v>
+        <v>112129046</v>
       </c>
       <c r="B22" t="n">
-        <v>56446</v>
+        <v>90826</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,50 +3113,49 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654847</v>
+        <v>654944</v>
       </c>
       <c r="R22" t="n">
-        <v>6675850</v>
+        <v>6675779</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3201,7 +3187,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3211,7 +3197,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Fuktig granskog med en del tall. Pepprig papperssmak. Ingen vit mycelmatta.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3238,10 +3229,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112128620</v>
+        <v>112129074</v>
       </c>
       <c r="B23" t="n">
-        <v>90480</v>
+        <v>96735</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3250,34 +3241,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3285,10 +3281,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654939</v>
+        <v>654942</v>
       </c>
       <c r="R23" t="n">
-        <v>6675770</v>
+        <v>6675839</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3320,7 +3316,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3330,12 +3326,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:04</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3362,10 +3353,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112129085</v>
+        <v>112128620</v>
       </c>
       <c r="B24" t="n">
-        <v>98980</v>
+        <v>90480</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3378,27 +3369,30 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3406,10 +3400,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654896</v>
+        <v>654939</v>
       </c>
       <c r="R24" t="n">
-        <v>6675820</v>
+        <v>6675770</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -3441,7 +3435,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3451,7 +3445,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Fuktig granskog. Ljusgul mjölksaft som ej ändrar färg.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3478,10 +3477,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112129050</v>
+        <v>112128596</v>
       </c>
       <c r="B25" t="n">
-        <v>90835</v>
+        <v>56446</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3490,49 +3489,50 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654924</v>
+        <v>654869</v>
       </c>
       <c r="R25" t="n">
-        <v>6675762</v>
+        <v>6675890</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 32140-2022.xlsx
+++ b/artfynd/A 32140-2022.xlsx
@@ -2498,10 +2498,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112129050</v>
+        <v>112128590</v>
       </c>
       <c r="B17" t="n">
-        <v>90835</v>
+        <v>56446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2510,49 +2510,50 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Persbomossen, Upl</t>
+          <t>Persbo gruva, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>654924</v>
+        <v>654853</v>
       </c>
       <c r="R17" t="n">
-        <v>6675762</v>
+        <v>6675824</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2584,7 +2585,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2594,7 +2595,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2621,10 +2622,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112128590</v>
+        <v>112129050</v>
       </c>
       <c r="B18" t="n">
-        <v>56446</v>
+        <v>90835</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2633,50 +2634,49 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Persbo gruva, Upl</t>
+          <t>Persbomossen, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>654853</v>
+        <v>654924</v>
       </c>
       <c r="R18" t="n">
-        <v>6675824</v>
+        <v>6675762</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD18" t="b">
